--- a/kerntabellen/gemeente_woonmaatschappij.xlsx
+++ b/kerntabellen/gemeente_woonmaatschappij.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A58E23-86E1-452D-8F93-B3267938F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F126D6-5969-43E9-9D16-FA3002ECD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1070,12 +1070,6 @@
     <t>Name gemeente</t>
   </si>
   <si>
-    <t>woonmaatschappij</t>
-  </si>
-  <si>
-    <t>name woonmaatschappij</t>
-  </si>
-  <si>
     <t>gemeente onbekend</t>
   </si>
   <si>
@@ -1088,10 +1082,16 @@
     <t>Buiten Vlaanderen en Brussel</t>
   </si>
   <si>
-    <t>Woonmaatschappij onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>Woonmaatschappij onbekend (Brussel)</t>
+    <t>Werkingsgebied woonmaatschappij onbekend (Vlaanderen)</t>
+  </si>
+  <si>
+    <t>Werkingsgebied woonmaatschappij onbekend (Brussel)</t>
+  </si>
+  <si>
+    <t>name werkingsgebied_woonmaatschappij</t>
+  </si>
+  <si>
+    <t>werkingsgebied_woonmaatschappij</t>
   </si>
 </sst>
 </file>
@@ -1446,13 +1446,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4690FC2-CCA2-405E-A37E-D829D18DB266}">
   <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -1460,13 +1460,13 @@
         <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11001</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11002</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11004</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11005</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11007</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11008</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11009</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11013</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11016</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11018</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11021</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11022</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11023</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11024</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11025</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11029</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11030</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11035</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11037</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11038</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11039</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11040</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11044</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11050</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11052</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11053</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11054</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11055</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11056</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11057</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12002</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12005</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12007</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12009</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12014</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12021</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12025</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12026</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12029</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12035</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12040</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12041</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13001</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13002</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13003</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>13004</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>13006</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13008</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13010</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13011</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13012</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13013</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13014</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>13016</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13017</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13019</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>13021</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>13023</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>13025</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>13029</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>13031</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>13035</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>13036</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>13037</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>13040</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>13044</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13046</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>13049</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>13053</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>23002</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23003</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>23009</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>23016</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>23023</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>23024</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>23025</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>23027</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>23032</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>23033</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>23038</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>23039</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>23044</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>23045</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>23047</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>23050</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>23052</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>23060</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>23062</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>23064</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>23077</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>23081</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>23086</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>23088</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>23094</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>23096</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>23097</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>23098</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>23099</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>23100</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>23101</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>23102</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>23103</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>23104</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>23105</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>24001</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>24007</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>24008</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>24009</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24011</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>24014</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>24016</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>24020</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>24028</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>24033</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>24038</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>24041</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>24043</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>24045</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>24048</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>24054</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>24055</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>24059</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>24062</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24066</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>24086</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>24094</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>24104</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>24107</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>24109</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>24130</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>24133</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>24134</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>24135</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>24137</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>31003</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>31004</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>31005</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>31006</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>31012</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>31022</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>31033</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>31040</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>31042</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>31043</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>32003</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>32006</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>32010</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>32011</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>32030</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>33011</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>33016</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>33021</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>33029</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>33037</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>33039</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>33040</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>33041</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>34002</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>34003</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>34009</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>34013</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>34022</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>34023</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>34025</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>34027</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>34040</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>34041</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>34042</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>34043</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>35002</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>35005</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>35006</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>35011</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>35013</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>35014</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>35029</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>36006</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>36007</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>36008</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>36010</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>36011</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>36012</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>36015</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>36019</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>37002</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>37007</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>37010</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>37011</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>37012</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>37015</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>37017</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>37018</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>37020</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>38002</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>38008</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>38014</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>38016</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>38025</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>41002</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>41011</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>41018</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>41024</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>41027</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>41034</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>41048</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>41063</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>41081</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>41082</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>42003</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>42004</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>42006</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>42008</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>42010</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>42011</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>42023</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>42025</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>42026</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>42028</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>43002</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>43005</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>43007</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>43010</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>43014</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>43018</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>44012</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>44013</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>44019</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>44020</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>44021</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>44034</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>44040</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>44043</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>44045</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>44048</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>44052</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>44064</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>44073</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>44081</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>44083</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>44084</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>44085</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>45035</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>45041</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>45059</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>45060</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>45061</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>45062</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>45063</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>45064</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>45065</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>45068</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>46003</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>46013</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>46014</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>46020</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>46021</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>46024</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>46025</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>71002</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>71004</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>71011</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>71016</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>71017</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>71020</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>71022</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>71024</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>71034</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>71037</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>71045</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>71053</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>71057</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>71066</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>71067</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>71069</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>71070</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>72003</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>72004</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>72018</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>72020</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>72021</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>72030</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>72037</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>72038</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>72039</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>72041</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>72042</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>72043</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>73001</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>73006</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>73009</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>73022</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>73028</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>73032</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>73040</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>73042</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>73066</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>73083</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>73098</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>73107</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>73109</v>
       </c>
@@ -5666,46 +5666,46 @@
         <v>298</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>99999</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C302" s="1">
         <v>99</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>99991</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C303" s="1">
         <v>91</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>99992</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C304" s="1">
         <v>92</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_woonmaatschappij.xlsx
+++ b/kerntabellen/gemeente_woonmaatschappij.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F126D6-5969-43E9-9D16-FA3002ECD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B38ED62-69CD-4D69-928C-2057A6BFB770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1082,16 +1082,16 @@
     <t>Buiten Vlaanderen en Brussel</t>
   </si>
   <si>
-    <t>Werkingsgebied woonmaatschappij onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>Werkingsgebied woonmaatschappij onbekend (Brussel)</t>
-  </si>
-  <si>
     <t>name werkingsgebied_woonmaatschappij</t>
   </si>
   <si>
     <t>werkingsgebied_woonmaatschappij</t>
+  </si>
+  <si>
+    <t>Werkingsgebied onbekend (Vlaanderen)</t>
+  </si>
+  <si>
+    <t>Werkingsgebied onbekend (Brussel)</t>
   </si>
 </sst>
 </file>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4690FC2-CCA2-405E-A37E-D829D18DB266}">
   <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="J305" sqref="J305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1460,10 +1460,10 @@
         <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5691,7 +5691,7 @@
         <v>91</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5705,7 +5705,7 @@
         <v>92</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_woonmaatschappij.xlsx
+++ b/kerntabellen/gemeente_woonmaatschappij.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B38ED62-69CD-4D69-928C-2057A6BFB770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA61681-A8C4-4A9A-94EB-1825232CA2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="353">
   <si>
     <t>Antwerpen-stad</t>
   </si>
@@ -1092,6 +1092,12 @@
   </si>
   <si>
     <t>Werkingsgebied onbekend (Brussel)</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren</t>
+  </si>
+  <si>
+    <t>gemeente niet te lokaliseren</t>
   </si>
 </sst>
 </file>
@@ -1444,13 +1450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4690FC2-CCA2-405E-A37E-D829D18DB266}">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="J305" sqref="J305"/>
+      <selection activeCell="K301" sqref="K301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5708,6 +5717,20 @@
         <v>350</v>
       </c>
     </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>99993</v>
+      </c>
+      <c r="B305" t="s">
+        <v>352</v>
+      </c>
+      <c r="C305">
+        <v>93</v>
+      </c>
+      <c r="D305" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kerntabellen/gemeente_woonmaatschappij.xlsx
+++ b/kerntabellen/gemeente_woonmaatschappij.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA61681-A8C4-4A9A-94EB-1825232CA2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2113F296-35B0-4305-9983-0BB54FD1E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1082,12 +1082,6 @@
     <t>Buiten Vlaanderen en Brussel</t>
   </si>
   <si>
-    <t>name werkingsgebied_woonmaatschappij</t>
-  </si>
-  <si>
-    <t>werkingsgebied_woonmaatschappij</t>
-  </si>
-  <si>
     <t>Werkingsgebied onbekend (Vlaanderen)</t>
   </si>
   <si>
@@ -1098,6 +1092,12 @@
   </si>
   <si>
     <t>gemeente niet te lokaliseren</t>
+  </si>
+  <si>
+    <t>woonmaatschappij</t>
+  </si>
+  <si>
+    <t>name woonmaatschappij</t>
   </si>
 </sst>
 </file>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4690FC2-CCA2-405E-A37E-D829D18DB266}">
   <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="K301" sqref="K301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,10 +1469,10 @@
         <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
         <v>91</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5714,7 +5714,7 @@
         <v>92</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5722,13 +5722,13 @@
         <v>99993</v>
       </c>
       <c r="B305" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C305">
         <v>93</v>
       </c>
       <c r="D305" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_woonmaatschappij.xlsx
+++ b/kerntabellen/gemeente_woonmaatschappij.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2113F296-35B0-4305-9983-0BB54FD1E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60D80B4-3D62-4D0D-A457-F171F22C57D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
+    <workbookView xWindow="-28920" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="336">
   <si>
     <t>Antwerpen-stad</t>
   </si>
@@ -122,9 +119,6 @@
     <t>Boechout</t>
   </si>
   <si>
-    <t>Borsbeek</t>
-  </si>
-  <si>
     <t>Edegem</t>
   </si>
   <si>
@@ -281,21 +275,12 @@
     <t>Waasland-Oost</t>
   </si>
   <si>
-    <t>Beveren</t>
-  </si>
-  <si>
-    <t>Kruibeke</t>
-  </si>
-  <si>
     <t>Sint-Gillis-Waas</t>
   </si>
   <si>
     <t>Stekene</t>
   </si>
   <si>
-    <t>Zwijndrecht</t>
-  </si>
-  <si>
     <t>Waasland-Midden</t>
   </si>
   <si>
@@ -311,9 +296,6 @@
     <t>Lokeren</t>
   </si>
   <si>
-    <t>Moerbeke</t>
-  </si>
-  <si>
     <t>Waasmunster</t>
   </si>
   <si>
@@ -356,9 +338,6 @@
     <t>Lochristi</t>
   </si>
   <si>
-    <t>Wachtebeke</t>
-  </si>
-  <si>
     <t>Wetteren</t>
   </si>
   <si>
@@ -371,9 +350,6 @@
     <t>Deinze</t>
   </si>
   <si>
-    <t>De Pinte</t>
-  </si>
-  <si>
     <t>Destelbergen</t>
   </si>
   <si>
@@ -383,15 +359,6 @@
     <t>Lievegem</t>
   </si>
   <si>
-    <t>Merelbeke</t>
-  </si>
-  <si>
-    <t>Melle</t>
-  </si>
-  <si>
-    <t>Nazareth</t>
-  </si>
-  <si>
     <t>Sint-Martens-Latem</t>
   </si>
   <si>
@@ -677,15 +644,6 @@
     <t>Bever</t>
   </si>
   <si>
-    <t>Herne</t>
-  </si>
-  <si>
-    <t>Galmaarden</t>
-  </si>
-  <si>
-    <t>Gooik</t>
-  </si>
-  <si>
     <t>Lennik</t>
   </si>
   <si>
@@ -770,15 +728,9 @@
     <t>Midwest-Oost</t>
   </si>
   <si>
-    <t>Meulebeke</t>
-  </si>
-  <si>
     <t>Pittem</t>
   </si>
   <si>
-    <t>Ruiselede</t>
-  </si>
-  <si>
     <t>Tielt</t>
   </si>
   <si>
@@ -947,15 +899,9 @@
     <t>Beringen</t>
   </si>
   <si>
-    <t>Bilzen</t>
-  </si>
-  <si>
     <t>Bocholt</t>
   </si>
   <si>
-    <t>Borgloon</t>
-  </si>
-  <si>
     <t>Bree</t>
   </si>
   <si>
@@ -974,9 +920,6 @@
     <t>Halen</t>
   </si>
   <si>
-    <t>Ham</t>
-  </si>
-  <si>
     <t>Hamont-Achel</t>
   </si>
   <si>
@@ -998,18 +941,12 @@
     <t>Heusden-Zolder</t>
   </si>
   <si>
-    <t>Hoeselt</t>
-  </si>
-  <si>
     <t>Houthalen-Helchteren</t>
   </si>
   <si>
     <t>Kinrooi</t>
   </si>
   <si>
-    <t>Kortessem</t>
-  </si>
-  <si>
     <t>Lanaken</t>
   </si>
   <si>
@@ -1046,12 +983,6 @@
     <t>Sint-Truiden</t>
   </si>
   <si>
-    <t>Tessenderlo</t>
-  </si>
-  <si>
-    <t>Tongeren</t>
-  </si>
-  <si>
     <t>Voeren</t>
   </si>
   <si>
@@ -1070,15 +1001,6 @@
     <t>Name gemeente</t>
   </si>
   <si>
-    <t>gemeente onbekend</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Brussel)</t>
-  </si>
-  <si>
     <t>Buiten Vlaanderen en Brussel</t>
   </si>
   <si>
@@ -1091,10 +1013,34 @@
     <t>Niet te lokaliseren</t>
   </si>
   <si>
-    <t>gemeente niet te lokaliseren</t>
-  </si>
-  <si>
     <t>woonmaatschappij</t>
+  </si>
+  <si>
+    <t>Beveren-Kruibeke-Zwijndrecht</t>
+  </si>
+  <si>
+    <t>Bilzen-Hoeselt</t>
+  </si>
+  <si>
+    <t>Merelbeke-Melle</t>
+  </si>
+  <si>
+    <t>Nazareth-De Pinte</t>
+  </si>
+  <si>
+    <t>Pajottegem</t>
+  </si>
+  <si>
+    <t>Tessenderlo-Ham</t>
+  </si>
+  <si>
+    <t>Tongeren-Borgloon</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Brussel</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Vlaanderen</t>
   </si>
   <si>
     <t>name woonmaatschappij</t>
@@ -1133,8 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,2071 +1394,2068 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4690FC2-CCA2-405E-A37E-D829D18DB266}">
-  <dimension ref="A1:D305"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA71C5C-62EE-4C07-8FEE-A87AACD8F768}">
+  <dimension ref="A1:D290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11001</v>
+        <v>41002</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>11002</v>
+        <v>44084</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>11004</v>
+        <v>24001</v>
       </c>
       <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4">
         <v>26</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11005</v>
+        <v>11001</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11007</v>
+        <v>23105</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11008</v>
+        <v>73001</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>284</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11009</v>
+        <v>38002</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11013</v>
+        <v>11002</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11016</v>
+        <v>34002</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11018</v>
+        <v>37020</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11021</v>
+        <v>13001</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11022</v>
+        <v>71002</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11023</v>
+        <v>23002</v>
       </c>
       <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11024</v>
+        <v>43002</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11025</v>
+        <v>34003</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11029</v>
+        <v>13002</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11030</v>
+        <v>13003</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>11035</v>
+        <v>31003</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11037</v>
+        <v>13004</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11038</v>
+        <v>23003</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>11039</v>
+        <v>24007</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>11040</v>
+        <v>24008</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>11044</v>
+        <v>71004</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11050</v>
+        <v>12002</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>11052</v>
+        <v>42003</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>11053</v>
+        <v>24009</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>11054</v>
+        <v>23009</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11055</v>
+        <v>46030</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11056</v>
+        <v>24011</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11057</v>
+        <v>73110</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>327</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>12002</v>
+        <v>31004</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>12005</v>
+        <v>72003</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>12007</v>
+        <v>11004</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>12009</v>
+        <v>12005</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>12014</v>
+        <v>11005</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>12021</v>
+        <v>24014</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>12025</v>
+        <v>12007</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>12026</v>
+        <v>24016</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>12029</v>
+        <v>45059</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>12035</v>
+        <v>11008</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>12040</v>
+        <v>11009</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>12041</v>
+        <v>35002</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>13001</v>
+        <v>72004</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>13002</v>
+        <v>31005</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>13003</v>
+        <v>42004</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>13004</v>
+        <v>31006</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>13006</v>
+        <v>35029</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>13008</v>
+        <v>38008</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>13010</v>
+        <v>34009</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>13011</v>
+        <v>44083</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>13012</v>
+        <v>41011</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>13013</v>
+        <v>42006</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>13014</v>
+        <v>37002</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>13016</v>
+        <v>13006</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>13017</v>
+        <v>44013</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>13019</v>
+        <v>71011</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>13021</v>
+        <v>24020</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>13023</v>
+        <v>32003</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>13025</v>
+        <v>23016</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>13029</v>
+        <v>72041</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>13031</v>
+        <v>23098</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>13035</v>
+        <v>12009</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C63">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>13036</v>
+        <v>11013</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>13037</v>
+        <v>43005</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>13040</v>
+        <v>41082</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C66">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>13044</v>
+        <v>11016</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>13046</v>
+        <v>44019</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C68">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>13049</v>
+        <v>44020</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>13053</v>
+        <v>13008</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C70">
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>23002</v>
+        <v>24028</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>23003</v>
+        <v>71016</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>23009</v>
+        <v>44021</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>23016</v>
+        <v>41018</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>23023</v>
+        <v>71017</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>23024</v>
+        <v>35005</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>23025</v>
+        <v>24137</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>23027</v>
+        <v>23025</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>23032</v>
+        <v>13010</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="C79">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>23033</v>
+        <v>24033</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C80">
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>23038</v>
+        <v>41024</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>23039</v>
+        <v>71020</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>23044</v>
+        <v>23027</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>23045</v>
+        <v>42008</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="C84">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>23047</v>
+        <v>72037</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>23050</v>
+        <v>34013</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>23052</v>
+        <v>71072</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>23060</v>
+        <v>72038</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>23062</v>
+        <v>73022</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>23064</v>
+        <v>12014</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>23077</v>
+        <v>11018</v>
       </c>
       <c r="B91" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>216</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>23081</v>
+        <v>24038</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="C92">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>23086</v>
+        <v>13011</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="C93">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>23088</v>
+        <v>13012</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>23094</v>
+        <v>71024</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="C95">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>23096</v>
+        <v>13013</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C96">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>23097</v>
+        <v>73028</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="C97">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>23098</v>
+        <v>41027</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>23099</v>
+        <v>71070</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="C99">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>23100</v>
+        <v>33039</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>23101</v>
+        <v>24041</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>23102</v>
+        <v>23033</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C102">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>23103</v>
+        <v>24043</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C103">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>23104</v>
+        <v>36006</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>23105</v>
+        <v>13014</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="C105">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>24001</v>
+        <v>45062</v>
       </c>
       <c r="B106" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C106">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>24007</v>
+        <v>72039</v>
       </c>
       <c r="B107" t="s">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="C107">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>24008</v>
+        <v>32006</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="C108">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>24009</v>
+        <v>11021</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="C109">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>24011</v>
+        <v>24045</v>
       </c>
       <c r="B110" t="s">
         <v>172</v>
       </c>
       <c r="C110">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>24014</v>
+        <v>13016</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="C111">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>24016</v>
+        <v>35006</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="C112">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>24020</v>
+        <v>33011</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="C113">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>24028</v>
+        <v>36007</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="C114">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>24033</v>
+        <v>36008</v>
       </c>
       <c r="B115" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="C115">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>24038</v>
+        <v>31012</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C116">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>24041</v>
+        <v>11022</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C117">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>24043</v>
+        <v>23038</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C118">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>24045</v>
+        <v>23039</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C119">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>24048</v>
+        <v>11023</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>24054</v>
+        <v>43007</v>
       </c>
       <c r="B121" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C121">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>24055</v>
+        <v>13017</v>
       </c>
       <c r="B122" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="C122">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>24059</v>
+        <v>24048</v>
       </c>
       <c r="B123" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C123">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>24062</v>
+        <v>72018</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c r="C124">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>24066</v>
+        <v>45060</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C125">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>24086</v>
+        <v>31043</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C126">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>24094</v>
+        <v>32010</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="C127">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>24104</v>
+        <v>38014</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="C128">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>24107</v>
+        <v>11024</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="C129">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>24109</v>
+        <v>32011</v>
       </c>
       <c r="B130" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="C130">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>24130</v>
+        <v>24054</v>
       </c>
       <c r="B131" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C131">
         <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>24133</v>
+        <v>24055</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C132">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>24134</v>
+        <v>34022</v>
       </c>
       <c r="B133" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="C133">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>24135</v>
+        <v>23099</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C134">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>24137</v>
+        <v>45068</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C135">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>31003</v>
+        <v>34023</v>
       </c>
       <c r="B136" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D136" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>31004</v>
+        <v>13053</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="C137">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>31005</v>
+        <v>42010</v>
       </c>
       <c r="B138" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>31006</v>
+        <v>73042</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>31012</v>
+        <v>24059</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>31022</v>
+        <v>33040</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C141">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>31033</v>
+        <v>42011</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="C142">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>31040</v>
+        <v>41034</v>
       </c>
       <c r="B143" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>31042</v>
+        <v>36010</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C144">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>31043</v>
+        <v>34025</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C145">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>32003</v>
+        <v>23104</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="C146">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>32006</v>
+        <v>71034</v>
       </c>
       <c r="B147" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C147">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
         <v>283</v>
@@ -3521,727 +3463,727 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>32010</v>
+        <v>24062</v>
       </c>
       <c r="B148" t="s">
-        <v>288</v>
+        <v>164</v>
       </c>
       <c r="C148">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D148" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>32011</v>
+        <v>36011</v>
       </c>
       <c r="B149" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C149">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>32030</v>
+        <v>23044</v>
       </c>
       <c r="B150" t="s">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="C150">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>33011</v>
+        <v>12021</v>
       </c>
       <c r="B151" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="C151">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>33016</v>
+        <v>45063</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="C152">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D152" t="s">
-        <v>294</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>33021</v>
+        <v>44085</v>
       </c>
       <c r="B153" t="s">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="C153">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>248</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>33029</v>
+        <v>13019</v>
       </c>
       <c r="B154" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="C154">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>33037</v>
+        <v>23100</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="C155">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>33039</v>
+        <v>11025</v>
       </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>30</v>
       </c>
       <c r="C156">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>33040</v>
+        <v>24133</v>
       </c>
       <c r="B157" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="C157">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>33041</v>
+        <v>32030</v>
       </c>
       <c r="B158" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C158">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D158" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>34002</v>
+        <v>44087</v>
       </c>
       <c r="B159" t="s">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="C159">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>269</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>34003</v>
+        <v>46029</v>
       </c>
       <c r="B160" t="s">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="C160">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D160" t="s">
-        <v>278</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>34009</v>
+        <v>72020</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="C161">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>34013</v>
+        <v>23045</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="C162">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>34022</v>
+        <v>24066</v>
       </c>
       <c r="B163" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="C163">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>34023</v>
+        <v>71037</v>
       </c>
       <c r="B164" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C164">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>34025</v>
+        <v>45064</v>
       </c>
       <c r="B165" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="C165">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D165" t="s">
-        <v>269</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>34027</v>
+        <v>72021</v>
       </c>
       <c r="B166" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="C166">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>34040</v>
+        <v>73107</v>
       </c>
       <c r="B167" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="C167">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>34041</v>
+        <v>23047</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="C168">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>34042</v>
+        <v>43010</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="C169">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>34043</v>
+        <v>11057</v>
       </c>
       <c r="B170" t="s">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="C170">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>35002</v>
+        <v>12025</v>
       </c>
       <c r="B171" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="C171">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D171" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>35005</v>
+        <v>13021</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="C172">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>35006</v>
+        <v>23050</v>
       </c>
       <c r="B173" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C173">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>35011</v>
+        <v>34027</v>
       </c>
       <c r="B174" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="C174">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D174" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>35013</v>
+        <v>23052</v>
       </c>
       <c r="B175" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C175">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>35014</v>
+        <v>44088</v>
       </c>
       <c r="B176" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="C176">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>35029</v>
+        <v>13023</v>
       </c>
       <c r="B177" t="s">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="C177">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D177" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>36006</v>
+        <v>33016</v>
       </c>
       <c r="B178" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C178">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D178" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>36007</v>
+        <v>35011</v>
       </c>
       <c r="B179" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="C179">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D179" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>36008</v>
+        <v>13025</v>
       </c>
       <c r="B180" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="C180">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D180" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>36010</v>
+        <v>36012</v>
       </c>
       <c r="B181" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C181">
         <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>36011</v>
+        <v>11029</v>
       </c>
       <c r="B182" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
         <v>24</v>
-      </c>
-      <c r="D182" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>36012</v>
+        <v>44086</v>
       </c>
       <c r="B183" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="C183">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>248</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>36015</v>
+        <v>11030</v>
       </c>
       <c r="B184" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
       <c r="C184">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>36019</v>
+        <v>71045</v>
       </c>
       <c r="B185" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C185">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>37002</v>
+        <v>38016</v>
       </c>
       <c r="B186" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C186">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>37007</v>
+        <v>12026</v>
       </c>
       <c r="B187" t="s">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="C187">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D187" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>37010</v>
+        <v>41048</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="C188">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>269</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>37011</v>
+        <v>13029</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
       <c r="C189">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>37012</v>
+        <v>35013</v>
       </c>
       <c r="B190" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C190">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D190" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>37015</v>
+        <v>44052</v>
       </c>
       <c r="B191" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="C191">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D191" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>37017</v>
+        <v>31022</v>
       </c>
       <c r="B192" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="C192">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>37018</v>
+        <v>37010</v>
       </c>
       <c r="B193" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C193">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D193" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>37020</v>
+        <v>23060</v>
       </c>
       <c r="B194" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="C194">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>38002</v>
+        <v>24086</v>
       </c>
       <c r="B195" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="C195">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D195" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>38008</v>
+        <v>13031</v>
       </c>
       <c r="B196" t="s">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="C196">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D196" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>38014</v>
+        <v>45035</v>
       </c>
       <c r="B197" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="C197">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D197" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>38016</v>
+        <v>35014</v>
       </c>
       <c r="B198" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="C198">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D198" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>38025</v>
+        <v>72042</v>
       </c>
       <c r="B199" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C199">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
         <v>283</v>
@@ -4249,1486 +4191,1276 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>41002</v>
+        <v>23062</v>
       </c>
       <c r="B200" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C200">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D200" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>41011</v>
+        <v>23106</v>
       </c>
       <c r="B201" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="C201">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>41018</v>
+        <v>72030</v>
       </c>
       <c r="B202" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="C202">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D202" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>41024</v>
+        <v>72043</v>
       </c>
       <c r="B203" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="C203">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>41027</v>
+        <v>23064</v>
       </c>
       <c r="B204" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="C204">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>41034</v>
+        <v>37011</v>
       </c>
       <c r="B205" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="C205">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D205" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>41048</v>
+        <v>33021</v>
       </c>
       <c r="B206" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="C206">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>41063</v>
+        <v>12029</v>
       </c>
       <c r="B207" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="C207">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D207" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>41081</v>
+        <v>12041</v>
       </c>
       <c r="B208" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="C208">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D208" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>41082</v>
+        <v>11035</v>
       </c>
       <c r="B209" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
         <v>8</v>
-      </c>
-      <c r="D209" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>42003</v>
+        <v>13035</v>
       </c>
       <c r="B210" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C210">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D210" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>42004</v>
+        <v>13036</v>
       </c>
       <c r="B211" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="C211">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D211" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>42006</v>
+        <v>73066</v>
       </c>
       <c r="B212" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="C212">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>42008</v>
+        <v>13037</v>
       </c>
       <c r="B213" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="C213">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D213" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>42010</v>
+        <v>36015</v>
       </c>
       <c r="B214" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="C214">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>42011</v>
+        <v>45041</v>
       </c>
       <c r="B215" t="s">
+        <v>134</v>
+      </c>
+      <c r="C215">
+        <v>33</v>
+      </c>
+      <c r="D215" t="s">
         <v>126</v>
-      </c>
-      <c r="C215">
-        <v>6</v>
-      </c>
-      <c r="D215" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>42023</v>
+        <v>23097</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="C216">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>42025</v>
+        <v>24094</v>
       </c>
       <c r="B217" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="C217">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>42026</v>
+        <v>11037</v>
       </c>
       <c r="B218" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="C218">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>42028</v>
+        <v>11038</v>
       </c>
       <c r="B219" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C219">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>43002</v>
+        <v>24134</v>
       </c>
       <c r="B220" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C220">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>43005</v>
+        <v>11039</v>
       </c>
       <c r="B221" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C221">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>43007</v>
+        <v>11040</v>
       </c>
       <c r="B222" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C222">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>43010</v>
+        <v>23101</v>
       </c>
       <c r="B223" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="C223">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D223" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>43014</v>
+        <v>46020</v>
       </c>
       <c r="B224" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C224">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D224" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>43018</v>
+        <v>12035</v>
       </c>
       <c r="B225" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C225">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D225" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>44012</v>
+        <v>43014</v>
       </c>
       <c r="B226" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C226">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>44013</v>
+        <v>41063</v>
       </c>
       <c r="B227" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C227">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D227" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>44019</v>
+        <v>44064</v>
       </c>
       <c r="B228" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C228">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>44020</v>
+        <v>46021</v>
       </c>
       <c r="B229" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C229">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D229" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>44021</v>
+        <v>23077</v>
       </c>
       <c r="B230" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="C230">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>44034</v>
+        <v>71053</v>
       </c>
       <c r="B231" t="s">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="C231">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>102</v>
+        <v>283</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>44040</v>
+        <v>34043</v>
       </c>
       <c r="B232" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="C232">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D232" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>44043</v>
+        <v>11044</v>
       </c>
       <c r="B233" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="C233">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>44045</v>
+        <v>36019</v>
       </c>
       <c r="B234" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="C234">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D234" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>44048</v>
+        <v>23081</v>
       </c>
       <c r="B235" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="C235">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>44052</v>
+        <v>46024</v>
       </c>
       <c r="B236" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="C236">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D236" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>44064</v>
+        <v>46025</v>
       </c>
       <c r="B237" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C237">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D237" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>44073</v>
+        <v>23086</v>
       </c>
       <c r="B238" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="C238">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D238" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>44081</v>
+        <v>24104</v>
       </c>
       <c r="B239" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C239">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D239" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>44083</v>
+        <v>71071</v>
       </c>
       <c r="B240" t="s">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="C240">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>107</v>
+        <v>283</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>44084</v>
+        <v>37022</v>
       </c>
       <c r="B241" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="C241">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>44085</v>
+        <v>24135</v>
       </c>
       <c r="B242" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C242">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>45035</v>
+        <v>24107</v>
       </c>
       <c r="B243" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C243">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D243" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>45041</v>
+        <v>73111</v>
       </c>
       <c r="B244" t="s">
-        <v>144</v>
+        <v>332</v>
       </c>
       <c r="C244">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>45059</v>
+        <v>31033</v>
       </c>
       <c r="B245" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="C245">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>45060</v>
+        <v>24109</v>
       </c>
       <c r="B246" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C246">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D246" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>45061</v>
+        <v>13040</v>
       </c>
       <c r="B247" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="C247">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>45062</v>
+        <v>38025</v>
       </c>
       <c r="B248" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="C248">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D248" t="s">
-        <v>136</v>
+        <v>268</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>45063</v>
+        <v>23088</v>
       </c>
       <c r="B249" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C249">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D249" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>45064</v>
+        <v>33041</v>
       </c>
       <c r="B250" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="C250">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>45065</v>
+        <v>73109</v>
       </c>
       <c r="B251" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="C251">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>45068</v>
+        <v>13044</v>
       </c>
       <c r="B252" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C252">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D252" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>46003</v>
+        <v>13046</v>
       </c>
       <c r="B253" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C253">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>46013</v>
+        <v>42023</v>
       </c>
       <c r="B254" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C254">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D254" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>46014</v>
+        <v>34040</v>
       </c>
       <c r="B255" t="s">
-        <v>89</v>
+        <v>261</v>
       </c>
       <c r="C255">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D255" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>46020</v>
+        <v>73098</v>
       </c>
       <c r="B256" t="s">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="C256">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>46021</v>
+        <v>23102</v>
       </c>
       <c r="B257" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C257">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>46024</v>
+        <v>33029</v>
       </c>
       <c r="B258" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="C258">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D258" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>46025</v>
+        <v>13049</v>
       </c>
       <c r="B259" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C259">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D259" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>71002</v>
+        <v>42025</v>
       </c>
       <c r="B260" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C260">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D260" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>71004</v>
+        <v>34041</v>
       </c>
       <c r="B261" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="C261">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D261" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>71011</v>
+        <v>23103</v>
       </c>
       <c r="B262" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="C262">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D262" t="s">
-        <v>298</v>
+        <v>166</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>71016</v>
+        <v>42026</v>
       </c>
       <c r="B263" t="s">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="C263">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D263" t="s">
-        <v>298</v>
+        <v>117</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>71017</v>
+        <v>37017</v>
       </c>
       <c r="B264" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="C264">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D264" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>71020</v>
+        <v>11050</v>
       </c>
       <c r="B265" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="C265">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>71022</v>
+        <v>12040</v>
       </c>
       <c r="B266" t="s">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="C266">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D266" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>71024</v>
+        <v>37021</v>
       </c>
       <c r="B267" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="C267">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D267" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>71034</v>
+        <v>11052</v>
       </c>
       <c r="B268" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="C268">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>71037</v>
+        <v>45061</v>
       </c>
       <c r="B269" t="s">
-        <v>326</v>
+        <v>135</v>
       </c>
       <c r="C269">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D269" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>71045</v>
+        <v>11053</v>
       </c>
       <c r="B270" t="s">
-        <v>329</v>
+        <v>21</v>
       </c>
       <c r="C270">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>71053</v>
+        <v>11054</v>
       </c>
       <c r="B271" t="s">
-        <v>334</v>
+        <v>22</v>
       </c>
       <c r="C271">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>71057</v>
+        <v>23094</v>
       </c>
       <c r="B272" t="s">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="C272">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D272" t="s">
-        <v>298</v>
+        <v>166</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>71066</v>
+        <v>31040</v>
       </c>
       <c r="B273" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="C273">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D273" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>71067</v>
+        <v>42028</v>
       </c>
       <c r="B274" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c r="C274">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D274" t="s">
-        <v>298</v>
+        <v>109</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>71069</v>
+        <v>43018</v>
       </c>
       <c r="B275" t="s">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="C275">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>71070</v>
+        <v>23096</v>
       </c>
       <c r="B276" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="C276">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>72003</v>
+        <v>11055</v>
       </c>
       <c r="B277" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="C277">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D277" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>72004</v>
+        <v>71066</v>
       </c>
       <c r="B278" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C278">
         <v>22</v>
       </c>
       <c r="D278" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>72018</v>
+        <v>33037</v>
       </c>
       <c r="B279" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="C279">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D279" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>72020</v>
+        <v>41081</v>
       </c>
       <c r="B280" t="s">
-        <v>325</v>
+        <v>140</v>
       </c>
       <c r="C280">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D280" t="s">
-        <v>298</v>
+        <v>136</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>72021</v>
+        <v>24130</v>
       </c>
       <c r="B281" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C281">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D281" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>72030</v>
+        <v>31042</v>
       </c>
       <c r="B282" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="C282">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D282" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>72037</v>
+        <v>44081</v>
       </c>
       <c r="B283" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="C283">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D283" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>72038</v>
+        <v>71067</v>
       </c>
       <c r="B284" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C284">
         <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>72039</v>
+        <v>45065</v>
       </c>
       <c r="B285" t="s">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="C285">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D285" t="s">
-        <v>298</v>
+        <v>136</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>72041</v>
+        <v>34042</v>
       </c>
       <c r="B286" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="C286">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D286" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>72042</v>
+        <v>99999</v>
       </c>
       <c r="B287" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C287">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D287" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>72043</v>
+        <v>99993</v>
       </c>
       <c r="B288" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C288">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D288" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>73001</v>
+        <v>99992</v>
       </c>
       <c r="B289" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="C289">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D289" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>73006</v>
+        <v>99991</v>
       </c>
       <c r="B290" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C290">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D290" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>73009</v>
-      </c>
-      <c r="B291" t="s">
-        <v>304</v>
-      </c>
-      <c r="C291">
-        <v>22</v>
-      </c>
-      <c r="D291" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>73022</v>
-      </c>
-      <c r="B292" t="s">
-        <v>315</v>
-      </c>
-      <c r="C292">
-        <v>22</v>
-      </c>
-      <c r="D292" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>73028</v>
-      </c>
-      <c r="B293" t="s">
-        <v>317</v>
-      </c>
-      <c r="C293">
-        <v>22</v>
-      </c>
-      <c r="D293" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>73032</v>
-      </c>
-      <c r="B294" t="s">
-        <v>319</v>
-      </c>
-      <c r="C294">
-        <v>22</v>
-      </c>
-      <c r="D294" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>73040</v>
-      </c>
-      <c r="B295" t="s">
         <v>322</v>
-      </c>
-      <c r="C295">
-        <v>22</v>
-      </c>
-      <c r="D295" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>73042</v>
-      </c>
-      <c r="B296" t="s">
-        <v>323</v>
-      </c>
-      <c r="C296">
-        <v>22</v>
-      </c>
-      <c r="D296" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>73066</v>
-      </c>
-      <c r="B297" t="s">
-        <v>333</v>
-      </c>
-      <c r="C297">
-        <v>22</v>
-      </c>
-      <c r="D297" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>73083</v>
-      </c>
-      <c r="B298" t="s">
-        <v>336</v>
-      </c>
-      <c r="C298">
-        <v>22</v>
-      </c>
-      <c r="D298" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>73098</v>
-      </c>
-      <c r="B299" t="s">
-        <v>338</v>
-      </c>
-      <c r="C299">
-        <v>22</v>
-      </c>
-      <c r="D299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>73107</v>
-      </c>
-      <c r="B300" t="s">
-        <v>328</v>
-      </c>
-      <c r="C300">
-        <v>22</v>
-      </c>
-      <c r="D300" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>73109</v>
-      </c>
-      <c r="B301" t="s">
-        <v>337</v>
-      </c>
-      <c r="C301">
-        <v>22</v>
-      </c>
-      <c r="D301" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
-        <v>99999</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C302" s="1">
-        <v>99</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
-        <v>99991</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C303" s="1">
-        <v>91</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="1">
-        <v>99992</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C304" s="1">
-        <v>92</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305">
-        <v>99993</v>
-      </c>
-      <c r="B305" t="s">
-        <v>350</v>
-      </c>
-      <c r="C305">
-        <v>93</v>
-      </c>
-      <c r="D305" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_woonmaatschappij.xlsx
+++ b/kerntabellen/gemeente_woonmaatschappij.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60D80B4-3D62-4D0D-A457-F171F22C57D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B7A275-54F7-4CC1-BF81-2C53F497E27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{2F440909-EE07-4160-9ED3-7986FB46BC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="334">
   <si>
     <t>Antwerpen-stad</t>
   </si>
@@ -1002,12 +1002,6 @@
   </si>
   <si>
     <t>Buiten Vlaanderen en Brussel</t>
-  </si>
-  <si>
-    <t>Werkingsgebied onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>Werkingsgebied onbekend (Brussel)</t>
   </si>
   <si>
     <t>Niet te lokaliseren</t>
@@ -1099,9 +1093,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1139,7 +1133,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1245,7 +1239,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1387,7 +1381,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1397,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA71C5C-62EE-4C07-8FEE-A87AACD8F768}">
   <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,10 +1405,10 @@
         <v>320</v>
       </c>
       <c r="C1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,7 +1794,7 @@
         <v>46030</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C29">
         <v>35</v>
@@ -1828,7 +1822,7 @@
         <v>73110</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C31">
         <v>22</v>
@@ -3858,7 +3852,7 @@
         <v>44088</v>
       </c>
       <c r="B176" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C176">
         <v>12</v>
@@ -3956,7 +3950,7 @@
         <v>44086</v>
       </c>
       <c r="B183" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C183">
         <v>12</v>
@@ -4208,7 +4202,7 @@
         <v>23106</v>
       </c>
       <c r="B201" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C201">
         <v>13</v>
@@ -4754,7 +4748,7 @@
         <v>71071</v>
       </c>
       <c r="B240" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C240">
         <v>22</v>
@@ -4810,7 +4804,7 @@
         <v>73111</v>
       </c>
       <c r="B244" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C244">
         <v>22</v>
@@ -5426,13 +5420,13 @@
         <v>99993</v>
       </c>
       <c r="B288" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C288">
         <v>93</v>
       </c>
       <c r="D288" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,13 +5434,13 @@
         <v>99992</v>
       </c>
       <c r="B289" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C289">
         <v>92</v>
       </c>
       <c r="D289" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5454,13 +5448,13 @@
         <v>99991</v>
       </c>
       <c r="B290" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C290">
         <v>91</v>
       </c>
       <c r="D290" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
